--- a/rq1/variables.xlsx
+++ b/rq1/variables.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dliu/GitHub/review-dynamics-openstack/rq1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D139D9F-4E4B-4C41-AB09-2C262042E467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A4B9BD-F8CF-2F43-90CE-1EAD7687376C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-6620" windowWidth="25600" windowHeight="28300" xr2:uid="{0EE27040-8EF9-BB48-93FD-5B9AC78A3747}"/>
+    <workbookView xWindow="-25600" yWindow="-6620" windowWidth="25600" windowHeight="28300" activeTab="7" xr2:uid="{0EE27040-8EF9-BB48-93FD-5B9AC78A3747}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="patch" sheetId="2" r:id="rId2"/>
+    <sheet name="dynamic" sheetId="3" r:id="rId3"/>
+    <sheet name="reviewer" sheetId="4" r:id="rId4"/>
+    <sheet name="rq1" sheetId="5" r:id="rId5"/>
+    <sheet name="review" sheetId="7" r:id="rId6"/>
+    <sheet name="social" sheetId="8" r:id="rId7"/>
+    <sheet name="rq2" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$32</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="186">
   <si>
     <t>Paper Category</t>
   </si>
@@ -283,13 +293,337 @@
   </si>
   <si>
     <t>dynamic</t>
+  </si>
+  <si>
+    <t>Is Author Experienced Reviewer</t>
+  </si>
+  <si>
+    <t>Is Author Experienced Author</t>
+  </si>
+  <si>
+    <t>Is Author Core</t>
+  </si>
+  <si>
+    <t>Average Prior Commits Age</t>
+  </si>
+  <si>
+    <t># Prior Commits Bug Fixing</t>
+  </si>
+  <si>
+    <t># Prior Commits</t>
+  </si>
+  <si>
+    <t>Description Length</t>
+  </si>
+  <si>
+    <t>Is Bug Fixing</t>
+  </si>
+  <si>
+    <t>Average Cyclomatic Complexity</t>
+  </si>
+  <si>
+    <t># Directories Impacted</t>
+  </si>
+  <si>
+    <t># Files Impacted</t>
+  </si>
+  <si>
+    <t># Lines of Code</t>
+  </si>
+  <si>
+    <t># Lines Deleted</t>
+  </si>
+  <si>
+    <t># Lines Added</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Number of lines added</t>
+  </si>
+  <si>
+    <t>Number of lines deleted</t>
+  </si>
+  <si>
+    <t>Number of lines in the files modified</t>
+  </si>
+  <si>
+    <t>Number of files modified</t>
+  </si>
+  <si>
+    <t>Number of directories modified</t>
+  </si>
+  <si>
+    <t>Average Cyclomatic Complexity of the files</t>
+  </si>
+  <si>
+    <t>Dispersion in lines changed \ref{b6}</t>
+  </si>
+  <si>
+    <t>Whether or not the patch is for fixing bugs</t>
+  </si>
+  <si>
+    <t>Number of words in the patch description</t>
+  </si>
+  <si>
+    <t>Number of prior commits that are for fixing bugs</t>
+  </si>
+  <si>
+    <t>Average number of days between the prior commits and the current patch</t>
+  </si>
+  <si>
+    <t>Whether or not the patch author is a core developer</t>
+  </si>
+  <si>
+    <t>Number of commits that last touched the lines that are modified in the files modified by the current patch based on the SZZ algorithm \ref{b7}</t>
+  </si>
+  <si>
+    <t>Whether or not the patch author has authored at least 5\% of the prior commits</t>
+  </si>
+  <si>
+    <t>Whether or not the patch author has reviewed at least 5\% of the prior commits</t>
+  </si>
+  <si>
+    <t># Prior Votes</t>
+  </si>
+  <si>
+    <t># Prior Comments</t>
+  </si>
+  <si>
+    <t>% Prior Votes Positive</t>
+  </si>
+  <si>
+    <t>% Prior Positive Votes From Core Developers</t>
+  </si>
+  <si>
+    <t>% Prior Negative Votes From Core Developers</t>
+  </si>
+  <si>
+    <t>Number of votes prior to the current review</t>
+  </si>
+  <si>
+    <t>Number of comments prior to the current review</t>
+  </si>
+  <si>
+    <t>Percentage of prior positive votes that comes from core developers</t>
+  </si>
+  <si>
+    <t>Percentage of prior votes that is positive</t>
+  </si>
+  <si>
+    <t>Percentage of prior negative votes that comes from core developers</t>
+  </si>
+  <si>
+    <t>Is Reviewer Core</t>
+  </si>
+  <si>
+    <t>Is Reviewer Experienced Author</t>
+  </si>
+  <si>
+    <t>Is Reviewer Experienced Reviewer</t>
+  </si>
+  <si>
+    <t>Reviewer Interaction Frequency w/ Author</t>
+  </si>
+  <si>
+    <t>Whether or not the reviewer is a core developer to the project</t>
+  </si>
+  <si>
+    <t>Whether or not the reviewer has authored prior commits in the past</t>
+  </si>
+  <si>
+    <t>Whether or not the reviewer has reviewed prior commits in the past</t>
+  </si>
+  <si>
+    <t>% Prior Comments Authored By Reviewer</t>
+  </si>
+  <si>
+    <t>Percentage of prior comments that were made by the reviewer</t>
+  </si>
+  <si>
+    <t>Percentage of patches the author has written in the past that were also reviewed by the reviewer</t>
+  </si>
+  <si>
+    <t>% Positive Votes</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Review Dynamic</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>Model A</t>
+  </si>
+  <si>
+    <t>Model B</t>
+  </si>
+  <si>
+    <t>Δ D.F.</t>
+  </si>
+  <si>
+    <t>% of Full LR</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Ex-Patch</t>
+  </si>
+  <si>
+    <t>Ex-Dynamic</t>
+  </si>
+  <si>
+    <t>Ex-Reviewer</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>X of Null AUC</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Statistical significance: *** p &lt; 0.001, ** p &lt; 0.01, * p &lt; 0.05, op &gt;= 0.05</t>
+  </si>
+  <si>
+    <t>$ Removed in correlation analysis</t>
+  </si>
+  <si>
+    <t># Votes</t>
+  </si>
+  <si>
+    <t>Total number of votes the patch received</t>
+  </si>
+  <si>
+    <t># Comments</t>
+  </si>
+  <si>
+    <t>Total number of comments the patch received</t>
+  </si>
+  <si>
+    <t>Percentage of votes that are positive</t>
+  </si>
+  <si>
+    <t>Finding from Analysis 1</t>
+  </si>
+  <si>
+    <t>Higher % prior positive votes from core developers --&gt;
+More likely to provide positve vote</t>
+  </si>
+  <si>
+    <t>Higher % prior votes positive --&gt;
+More likely to provide positve vote</t>
+  </si>
+  <si>
+    <t>% Positive Voters Consistent w/
+Prior Core Positive Votes</t>
+  </si>
+  <si>
+    <t>% Positive Voters Consistent w/
+Prior Votes Positive</t>
+  </si>
+  <si>
+    <t>Percentage of reviewers who provided a positive vote when
+at least one prior positive vote comes from a core developer</t>
+  </si>
+  <si>
+    <t>Higher % prior negative votes from core developers --&gt;
+Less likely to provide positve vote</t>
+  </si>
+  <si>
+    <t>% Positive Voters Inconsistent w/
+Prior Core Negative Votes</t>
+  </si>
+  <si>
+    <t>Percentage of reviewers who provided a positive vote when
+at least one prior negative vote comes from a core developer</t>
+  </si>
+  <si>
+    <t>Percentage of reviewers who provided a positive vote when
+at least one prior vote is positive</t>
+  </si>
+  <si>
+    <t>Higher # prior votes --&gt;
+Less likely to provide positve vote</t>
+  </si>
+  <si>
+    <t>Average # Prior Votes for
+Positive Voters</t>
+  </si>
+  <si>
+    <t>Average number of prior votes for all reviewers who
+voted positive</t>
+  </si>
+  <si>
+    <t>Higher # prior comments--&gt;
+Less likely to provide positve vote</t>
+  </si>
+  <si>
+    <t>Average # Prior Comments for
+Positive Voters</t>
+  </si>
+  <si>
+    <t>Average number of prior comments for all reviewers who
+voted positive</t>
+  </si>
+  <si>
+    <t>Ex-Review</t>
+  </si>
+  <si>
+    <t>Ex-Social</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,6 +634,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,13 +685,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,13 +1019,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926AC09F-6C19-6841-993B-7FF9A0E23E9C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +1064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -732,7 +1088,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +1106,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -772,7 +1128,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -796,7 +1152,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -818,7 +1174,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -832,7 +1188,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -846,7 +1202,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -868,7 +1224,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -887,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -1208,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1588,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -1256,7 +1612,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:H34" si="1">COUNTA(D3:D32)</f>
+        <f t="shared" ref="D34:F34" si="1">COUNTA(D3:D32)</f>
         <v>19</v>
       </c>
       <c r="E34">
@@ -1354,6 +1710,1313 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I32" xr:uid="{F710A7E4-9F66-354D-A5B3-7DA89C536AFD}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="Patch"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665B2A0-7DE9-9543-80EE-B83EC6DAFC4A}">
+  <dimension ref="B1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B0C38-B834-5A4F-B4AB-9DBF549DA3C3}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="258" zoomScaleNormal="258" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A377F3-A8D2-1345-B5D9-95C51F19578B}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="261" zoomScaleNormal="261" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67074FBC-6AC8-134A-8BB1-E7F2C34E6B08}">
+  <dimension ref="B2:K28"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1656</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8768</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1512</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>547</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>5934</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>326</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10">
+        <v>0.81</v>
+      </c>
+      <c r="I10">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>460</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11">
+        <v>0.77</v>
+      </c>
+      <c r="I11">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12">
+        <v>0.82</v>
+      </c>
+      <c r="I12">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13">
+        <v>0.82</v>
+      </c>
+      <c r="I13">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4013</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE4604D-2509-D345-982F-91ED7542CE2B}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857CB476-A9C8-BC45-98EA-9D2EAFD21EA8}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="46.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89E0B6D-71B3-9E4A-BE0C-5634C11719A3}">
+  <dimension ref="B2:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="7">
+        <v>402</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3373</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>399</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>98</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="7">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>359</v>
+      </c>
+      <c r="K6" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>438</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>496</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21">
+        <v>212</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <v>238</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>